--- a/tests/data.gui/stable/spectrophotometry/dsl.6.bad/kev.constants.data.xlsx
+++ b/tests/data.gui/stable/spectrophotometry/dsl.6.bad/kev.constants.data.xlsx
@@ -209,16 +209,16 @@
     <t xml:space="preserve">6.190185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56779699916713</t>
+    <t xml:space="preserve">7.47838163473776</t>
   </si>
   <si>
     <t xml:space="preserve">Insignificant</t>
   </si>
   <si>
-    <t xml:space="preserve">-20.20703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7238121462.77191</t>
+    <t xml:space="preserve">-6.30859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25288264440.948</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
@@ -722,12 +722,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.168493834971761</v>
+        <v>-0.0708318160190816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.168493834971761</v>
+        <v>-0.0708318160190816</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.755877491863508</v>
+        <v>0.755877491863509</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +811,7 @@
         <v>3521.15118581708</v>
       </c>
       <c r="F2" t="n">
-        <v>6.51983437772422e+30</v>
+        <v>82375689655040416</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.3301929247836</v>
+        <v>36.3301929247834</v>
       </c>
       <c r="F3" t="n">
-        <v>5.00383920303478e+30</v>
+        <v>63221652789401264</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1257,24 +1257,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.01396896388809e-08</v>
+        <v>0.0000000401396896388809</v>
       </c>
       <c r="B2" t="n">
         <v>0.000445963066208988</v>
       </c>
       <c r="C2" t="n">
-        <v>2.77369337910124e-05</v>
+        <v>0.0000277369337910124</v>
       </c>
       <c r="D2" t="n">
-        <v>4.46082990082773e-39</v>
+        <v>0.000000000000000000000000353063777218641</v>
       </c>
       <c r="E2" t="n">
-        <v>3.77073480650462e-07</v>
+        <v>0.000000377073480650462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.91482654670096e-07</v>
+        <v>0.000000191482654670096</v>
       </c>
       <c r="B3" t="n">
         <v>0.000365312438354232</v>
@@ -1283,15 +1283,15 @@
         <v>0.000108387561645774</v>
       </c>
       <c r="D3" t="n">
-        <v>8.31557125215271e-38</v>
+        <v>0.00000000000000000000000658157127997869</v>
       </c>
       <c r="E3" t="n">
-        <v>7.90443004377557e-08</v>
+        <v>0.0000000790443004377557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.94582072854088e-07</v>
+        <v>0.000000294582072854087</v>
       </c>
       <c r="B4" t="n">
         <v>0.000325243202121801</v>
@@ -1300,32 +1300,32 @@
         <v>0.000148456797878209</v>
       </c>
       <c r="D4" t="n">
-        <v>1.75222392438443e-37</v>
+        <v>0.000000000000000000000013868423836588</v>
       </c>
       <c r="E4" t="n">
-        <v>5.13799510530942e-08</v>
+        <v>0.0000000513799510530944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.05603648085602e-07</v>
+        <v>0.000000605603648085603</v>
       </c>
       <c r="B5" t="n">
         <v>0.000244380611043546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000229319388956469</v>
+        <v>0.00022931938895647</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56432465921042e-37</v>
+        <v>0.0000000000000000000000440402688631355</v>
       </c>
       <c r="E5" t="n">
-        <v>2.49926045396323e-08</v>
+        <v>0.0000000249926045396322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.22883861718864e-06</v>
+        <v>0.00000122883861718864</v>
       </c>
       <c r="B6" t="n">
         <v>0.0001631165216113</v>
@@ -1334,27 +1334,27 @@
         <v>0.000310583478388722</v>
       </c>
       <c r="D6" t="n">
-        <v>1.52917223364943e-36</v>
+        <v>0.000000000000000000000121030242540732</v>
       </c>
       <c r="E6" t="n">
-        <v>1.23170058888527e-08</v>
+        <v>0.0000000123170058888527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.83743973736412e-05</v>
+        <v>0.0000183743973736412</v>
       </c>
       <c r="B7" t="n">
-        <v>1.60735736398244e-05</v>
+        <v>0.0000160735736398244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00045762642636022</v>
+        <v>0.000457626426360219</v>
       </c>
       <c r="D7" t="n">
-        <v>3.36904958632507e-35</v>
+        <v>0.00000000000000000000266652035390122</v>
       </c>
       <c r="E7" t="n">
-        <v>8.23733817037978e-10</v>
+        <v>0.000000000823733817037981</v>
       </c>
     </row>
     <row r="8">
@@ -1362,33 +1362,33 @@
         <v>0.000140959049518964</v>
       </c>
       <c r="B8" t="n">
-        <v>2.15894214303153e-06</v>
+        <v>0.00000215894214303153</v>
       </c>
       <c r="C8" t="n">
         <v>0.000471541057861894</v>
       </c>
       <c r="D8" t="n">
-        <v>2.66315031140672e-34</v>
+        <v>0.000000000000000000021078183413176</v>
       </c>
       <c r="E8" t="n">
-        <v>1.07375954477657e-10</v>
+        <v>0.000000000107375954477657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.000275009109236229</v>
+        <v>0.000275009109236228</v>
       </c>
       <c r="B9" t="n">
-        <v>1.10905419978861e-06</v>
+        <v>0.00000110905419978861</v>
       </c>
       <c r="C9" t="n">
         <v>0.000472590945940147</v>
       </c>
       <c r="D9" t="n">
-        <v>5.20733693961292e-34</v>
+        <v>0.0000000000000000000412147983676479</v>
       </c>
       <c r="E9" t="n">
-        <v>5.50367677870655e-11</v>
+        <v>0.0000000000550367677870657</v>
       </c>
     </row>
     <row r="10">
@@ -1396,16 +1396,16 @@
         <v>0.000409545338482828</v>
       </c>
       <c r="B10" t="n">
-        <v>7.45301528286047e-07</v>
+        <v>0.00000074530152828605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000472954700104316</v>
+        <v>0.000472954700104318</v>
       </c>
       <c r="D10" t="n">
-        <v>7.7607686269816e-34</v>
+        <v>0.0000000000000000000614245857044143</v>
       </c>
       <c r="E10" t="n">
-        <v>3.69571108791822e-11</v>
+        <v>0.0000000000369571108791822</v>
       </c>
     </row>
     <row r="11">
@@ -1413,16 +1413,16 @@
         <v>0.00094262411830785</v>
       </c>
       <c r="B11" t="n">
-        <v>3.24102250960064e-07</v>
+        <v>0.000000324102250960064</v>
       </c>
       <c r="C11" t="n">
         <v>0.000473375897749261</v>
       </c>
       <c r="D11" t="n">
-        <v>1.78783688279734e-33</v>
+        <v>0.000000000000000000141502916929003</v>
       </c>
       <c r="E11" t="n">
-        <v>1.60568907482791e-11</v>
+        <v>0.0000000000160568907482791</v>
       </c>
     </row>
     <row r="12">
@@ -1430,16 +1430,16 @@
         <v>0.00135052627096279</v>
       </c>
       <c r="B12" t="n">
-        <v>2.26259755604239e-07</v>
+        <v>0.000000226259755604239</v>
       </c>
       <c r="C12" t="n">
         <v>0.000473473740268292</v>
       </c>
       <c r="D12" t="n">
-        <v>2.56201776626274e-33</v>
+        <v>0.000000000000000000202777440513961</v>
       </c>
       <c r="E12" t="n">
-        <v>1.12071958982123e-11</v>
+        <v>0.0000000000112071958982123</v>
       </c>
     </row>
     <row r="13">
@@ -1447,16 +1447,16 @@
         <v>0.00473536455453201</v>
       </c>
       <c r="B13" t="n">
-        <v>6.45513357276698e-08</v>
+        <v>0.0000000645513357276695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000473635448718475</v>
+        <v>0.000473635448718473</v>
       </c>
       <c r="D13" t="n">
-        <v>8.98629810272768e-33</v>
+        <v>0.000000000000000000711243517887338</v>
       </c>
       <c r="E13" t="n">
-        <v>3.19629298020497e-12</v>
+        <v>0.00000000000319629298020497</v>
       </c>
     </row>
   </sheetData>
@@ -1540,16 +1540,16 @@
         <v>1.61021137711632</v>
       </c>
       <c r="H2" t="n">
-        <v>1.66249649800998</v>
+        <v>1.66249649800997</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66894105471417</v>
+        <v>1.66894105471416</v>
       </c>
       <c r="J2" t="n">
         <v>1.67097164179382</v>
       </c>
       <c r="K2" t="n">
-        <v>1.67276526565933</v>
+        <v>1.67276526565934</v>
       </c>
       <c r="L2" t="n">
         <v>1.67951093589605</v>
@@ -1572,37 +1572,37 @@
         <v>0.0460309970768917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.038594025646167</v>
+        <v>0.0385940256461668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0477851934321816</v>
+        <v>0.0477851934321829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0344252613773486</v>
+        <v>0.0344252613773512</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0272113771163249</v>
+        <v>0.0272113771163245</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0024964980099782</v>
+        <v>0.00249649800997154</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0240589452858349</v>
+        <v>-0.0240589452858353</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0460283582061762</v>
+        <v>-0.0460283582061767</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0502347343406679</v>
+        <v>-0.0502347343406624</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0195109358960497</v>
+        <v>0.0195109358960501</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0465931181537622</v>
+        <v>0.0465931181537631</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.00946436872104539</v>
+        <v>-0.00946436872104739</v>
       </c>
     </row>
   </sheetData>
@@ -1686,16 +1686,16 @@
         <v>1.61021137711632</v>
       </c>
       <c r="H2" t="n">
-        <v>1.66249649800998</v>
+        <v>1.66249649800997</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66894105471417</v>
+        <v>1.66894105471416</v>
       </c>
       <c r="J2" t="n">
         <v>1.67097164179382</v>
       </c>
       <c r="K2" t="n">
-        <v>1.67276526565933</v>
+        <v>1.67276526565934</v>
       </c>
       <c r="L2" t="n">
         <v>1.67951093589605</v>
@@ -1718,37 +1718,37 @@
         <v>0.0314419378940517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.025729350430778</v>
+        <v>0.0257293504307778</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0317509590911505</v>
+        <v>0.0317509590911514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0222529162103094</v>
+        <v>0.0222529162103111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0171897518106917</v>
+        <v>0.0171897518106914</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00150391446384229</v>
+        <v>0.00150391446383828</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0142108359632811</v>
+        <v>-0.0142108359632813</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0268074305219431</v>
+        <v>-0.0268074305219433</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0291553884739802</v>
+        <v>-0.029155388473977</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0117535758409938</v>
+        <v>0.0117535758409941</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0284451270779989</v>
+        <v>0.0284451270779995</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.00545182530014135</v>
+        <v>-0.00545182530014251</v>
       </c>
     </row>
   </sheetData>
